--- a/artfynd/A 18306-2024 artfynd.xlsx
+++ b/artfynd/A 18306-2024 artfynd.xlsx
@@ -3105,7 +3105,7 @@
         <v>120301319</v>
       </c>
       <c r="B25" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>

--- a/artfynd/A 18306-2024 artfynd.xlsx
+++ b/artfynd/A 18306-2024 artfynd.xlsx
@@ -3105,7 +3105,7 @@
         <v>120301319</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>

--- a/artfynd/A 18306-2024 artfynd.xlsx
+++ b/artfynd/A 18306-2024 artfynd.xlsx
@@ -3105,7 +3105,7 @@
         <v>120301319</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
